--- a/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -249,15 +249,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2.2 페이즈 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1페이즈 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2.2 보스전 추가 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3 보스 공격 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 통해서 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 데미지 / 버프 형태로 구분 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 데미지 형은 탄막과 범위 공격으로 구분 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선동작으로 공격 패턴의 징조를 나타냄 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선동작 -&gt; 공격 -&gt; 종료 후 idle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스전을 위한 스폰 시스템을 추가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스전 연출 UI를 추가 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 선동작 + 공격 범위에 대한 이펙트를 이용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 필드에 오브젝트를 떨어트려 공격하는 형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 떨어트릴 위치에 공격 이펙트를 표기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 오브젝트가 떨어지는 위치를 미리 제작하여 불러와서 사용하는 형태로 사용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프리펩 형태로 사용 하는 방향 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스 몬스터 애니메이션을 출력 이후 패턴 시작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 떨어지는 오브젝트에 충돌 할 경우 ()값을 통해 피해를 입으며 전투 계산 식에 따른다. () = AttackDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 오브젝트가 바닥까지 닫는 시간을 () 값을 통해서 조절한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,12 +473,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,16 +500,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,6 +522,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16699</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="9496425"/>
+          <a:ext cx="4017199" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -720,7 +839,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,65 +853,65 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="8" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="4"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -812,72 +931,72 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -898,7 +1017,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -909,7 +1028,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -922,7 +1041,7 @@
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -954,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W29"/>
+  <dimension ref="B2:W68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,7 +1084,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="38.125" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="12" max="13" width="13.5" customWidth="1"/>
     <col min="14" max="14" width="14.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
@@ -983,49 +1102,55 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
@@ -1083,43 +1208,135 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C32" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E32" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
-        <v>56</v>
-      </c>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E6:G6"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
     <sheet name="보스 개요 " sheetId="2" r:id="rId2"/>
     <sheet name="시스템 룰" sheetId="3" r:id="rId3"/>
-    <sheet name="UI 구성" sheetId="6" r:id="rId4"/>
+    <sheet name="패턴1" sheetId="7" r:id="rId4"/>
+    <sheet name="패턴2" sheetId="8" r:id="rId5"/>
+    <sheet name="패턴3" sheetId="9" r:id="rId6"/>
+    <sheet name="UI 구성" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -322,6 +325,46 @@
   </si>
   <si>
     <t xml:space="preserve"> - 오브젝트가 바닥까지 닫는 시간을 () 값을 통해서 조절한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 특정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위 타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 패턴1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1 패턴1 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2 패턴2 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 보스 몬스터 개요 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 보스 몬스터 개요 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.3 패턴3 출력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -489,6 +532,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,9 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -526,22 +569,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>16699</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="4017199" cy="3705225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -560,7 +598,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="9496425"/>
+          <a:off x="1333500" y="5629275"/>
           <a:ext cx="4017199" cy="3705225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -569,7 +607,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -859,14 +897,14 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
@@ -878,36 +916,36 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -1017,7 +1055,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1075,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1116,11 +1154,11 @@
       <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -1132,9 +1170,9 @@
       <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
@@ -1146,11 +1184,11 @@
       <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
@@ -1226,6 +1264,9 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
       <c r="E22" s="6" t="s">
         <v>64</v>
       </c>
@@ -1253,75 +1294,6 @@
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
@@ -1336,19 +1308,193 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="72" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
     <sheet name="보스 개요 " sheetId="2" r:id="rId2"/>
     <sheet name="시스템 룰" sheetId="3" r:id="rId3"/>
-    <sheet name="패턴1" sheetId="7" r:id="rId4"/>
-    <sheet name="패턴2" sheetId="8" r:id="rId5"/>
-    <sheet name="패턴3" sheetId="9" r:id="rId6"/>
-    <sheet name="UI 구성" sheetId="6" r:id="rId7"/>
+    <sheet name="기본 공격" sheetId="10" r:id="rId4"/>
+    <sheet name="패턴1" sheetId="7" r:id="rId5"/>
+    <sheet name="패턴2" sheetId="8" r:id="rId6"/>
+    <sheet name="패턴3" sheetId="9" r:id="rId7"/>
+    <sheet name="UI 구성" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,55 +105,279 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - 체력 감소 혹은 플레이 시간등 조건에 따라 패턴이 변경 될 수 있도록 페이즈 시스템을 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 시스템 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.2 보스 몬스터 데이터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 페이즈 변경 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.1 페이즈 변경 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1 보스 외형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 프로젝트_보스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextPhase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 페이즈로 넘어가기 위한 체력 양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 체력 감소에 의해서 페이즈가 변경되며 NextPhase 값과 체력양이 동일 할 때 다음 페이즈로 넘어간다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2 보스 몬스터 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 페이즈가 한번 변경 되고 난 이후에는 이전 페이즈로 돌아가지 않는다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 사망 후 재도전 할 경우 페이즈를 초기화하여 출력한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 페이즈로 넘어가는 동안의 연출 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 시간동안 보스 액션 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhaseTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 페이즈가 변경 될 경우 (애니 명칭)을 출력한 뒤 변경 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 페이즈 변경 동안 패턴 진행을 멈추고 재시작 시간을 (PhaseTime) 값으로 조절한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1 기본 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2 패턴 정보 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스 몬스터 패턴 구현을위한 데이터 값 정보를 포함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스전에 필요한 UI 정보를 포함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3 페이즈 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. UI 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 보스전 추가 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위 타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 패턴1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1 패턴1 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2 패턴2 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 보스 몬스터 개요 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 보스 몬스터 개요 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.3 패턴3 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 페이즈는 출력하는 패턴의 집단으로 페이즈마다 출력되는 패턴이나 순서가 다르다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스전을 위한 스폰 시스템을 추가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스전 연출 UI를 추가 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 패턴1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스가 지속적으로 유저를 공격하게 하기 위한 패턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3 보스 스킬 쿨타임 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스 스킬 쿨타임 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴 마다 쿨타임을 통해서 출력을 다양하게 할 수 있도록 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> - 모든 공격을 유저가 회피 할 수있는 형태로 제작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 체력 감소 혹은 플레이 시간등 조건에 따라 패턴이 변경 될 수 있도록 페이즈 시스템을 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 패턴을 통해서 공략하는 재미를 추구 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2. 시스템 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.2 보스 몬스터 데이터 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 페이즈 변경 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.1 페이즈 변경 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1 보스 외형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 프로젝트_보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 페이즈는 출력하는 패턴의 집단으로 페이즈마다 출력되는 패턴이나 순서가 다르다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 명칭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">내용 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 형 </t>
+    <t xml:space="preserve"> - 보스와 붙어 있는 인형을 통해서 공격하는 형태로 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스의 공격과 인형의 공격을 통해서 다양한 형태로 패턴을 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 시스템 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니메이션을 전조 - 점프 - 착지 3가지 형태로 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 착지 피해 범위에 있을 경우 피해를 입음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 동작 종료 이후 착지 위치에 착지 피해 범위 이펙트 표기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격이 진행되는 속도는 애니메이터와 협의를 통해서 진행함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 존재하는 곳에 위치 값을 받아 점프하는 형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -160,211 +385,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - 착지 피해는 (SkillDamge) 값을 통해서 조절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDamge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴 1번 공격 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬피해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>실수형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NextPhase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 페이즈로 넘어가기 위한 체력 양</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 체력 감소에 의해서 페이즈가 변경되며 NextPhase 값과 체력양이 동일 할 때 다음 페이즈로 넘어간다.  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2 보스 몬스터 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 페이즈가 한번 변경 되고 난 이후에는 이전 페이즈로 돌아가지 않는다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어가 사망 후 재도전 할 경우 페이즈를 초기화하여 출력한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">다음 페이즈로 넘어가는 동안의 연출 시간 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 시간동안 보스 액션 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhaseTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 페이즈가 변경 될 경우 (애니 명칭)을 출력한 뒤 변경 시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 페이즈 변경 동안 패턴 진행을 멈추고 재시작 시간을 (PhaseTime) 값으로 조절한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5. 흐름도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.1 기본 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.2 패턴 정보 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스 몬스터 패턴 구현을위한 데이터 값 정보를 포함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스전에 필요한 UI 정보를 포함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.3 페이즈 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. UI 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 보스전 추가 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.3 보스 공격 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 통해서 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 데미지 / 버프 형태로 구분 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 데미지 형은 탄막과 범위 공격으로 구분 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선동작으로 공격 패턴의 징조를 나타냄 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선동작 -&gt; 공격 -&gt; 종료 후 idle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스전을 위한 스폰 시스템을 추가 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스전 연출 UI를 추가 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션 선동작 + 공격 범위에 대한 이펙트를 이용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 필드에 오브젝트를 떨어트려 공격하는 형태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 떨어트릴 위치에 공격 이펙트를 표기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 오브젝트가 떨어지는 위치를 미리 제작하여 불러와서 사용하는 형태로 사용 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">프리펩 형태로 사용 하는 방향 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스 몬스터 애니메이션을 출력 이후 패턴 시작 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 떨어지는 오브젝트에 충돌 할 경우 ()값을 통해 피해를 입으며 전투 계산 식에 따른다. () = AttackDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 오브젝트가 바닥까지 닫는 시간을 () 값을 통해서 조절한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 특정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 범위 타입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 패턴1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.1 패턴1 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.2 패턴2 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4. 보스 몬스터 개요 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5. 보스 몬스터 개요 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.3 패턴3 출력</t>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 착지 피해 범위는 원형으로 (SkillRange)값을 이용해서 조절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 모션은 루트 모션을 이용해서 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 점프와 범위를 통해서 유저에게 피해를 입히는 형태의 방식 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">필요 이펙트 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +478,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -506,7 +575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,6 +606,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,6 +622,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,6 +646,153 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41208</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5457825" y="1276351"/>
+          <a:ext cx="4184583" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638176" y="1266826"/>
+          <a:ext cx="4076700" cy="2671891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319491</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>79776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="3362325"/>
+          <a:ext cx="8682441" cy="1965726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -887,7 +1112,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -897,14 +1122,14 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
@@ -916,36 +1141,36 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -960,12 +1185,12 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
@@ -986,12 +1211,12 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
@@ -1005,37 +1230,37 @@
     <row r="23" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1052,60 +1277,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>16</v>
+      <c r="B21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1114,7 +1356,7 @@
   <dimension ref="B2:W68"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:G63"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1136,59 +1378,59 @@
   <sheetData>
     <row r="2" spans="2:23" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
@@ -1206,7 +1448,7 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1219,81 +1461,56 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T13" s="2"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
@@ -1313,10 +1530,157 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F25"/>
+  <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="50.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1326,115 +1690,56 @@
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1450,7 +1755,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1461,22 +1766,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B37"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -1484,12 +1810,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
     <sheet name="보스 개요 " sheetId="2" r:id="rId2"/>
     <sheet name="시스템 룰" sheetId="3" r:id="rId3"/>
-    <sheet name="기본 공격" sheetId="10" r:id="rId4"/>
-    <sheet name="패턴1" sheetId="7" r:id="rId5"/>
-    <sheet name="패턴2" sheetId="8" r:id="rId6"/>
-    <sheet name="패턴3" sheetId="9" r:id="rId7"/>
+    <sheet name="패턴1" sheetId="10" r:id="rId4"/>
+    <sheet name="패턴2" sheetId="7" r:id="rId5"/>
+    <sheet name="패턴3" sheetId="8" r:id="rId6"/>
+    <sheet name="기본공격" sheetId="9" r:id="rId7"/>
     <sheet name="UI 구성" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -257,10 +257,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3. 패턴1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7.1 패턴1 출력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -426,6 +422,10 @@
   </si>
   <si>
     <t xml:space="preserve">필요 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 패턴2 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1315,17 +1315,17 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
@@ -1335,12 +1335,12 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1494,23 +1494,23 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -1545,27 +1545,27 @@
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -1573,39 +1573,39 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="16"/>
     </row>
@@ -1617,55 +1617,55 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1692,7 +1692,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -1747,7 +1747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1755,7 +1755,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1776,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1797,12 +1797,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -1810,12 +1810,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
     <sheet name="보스 개요 " sheetId="2" r:id="rId2"/>
     <sheet name="시스템 룰" sheetId="3" r:id="rId3"/>
-    <sheet name="패턴1" sheetId="10" r:id="rId4"/>
-    <sheet name="패턴2" sheetId="7" r:id="rId5"/>
-    <sheet name="패턴3" sheetId="8" r:id="rId6"/>
-    <sheet name="기본공격" sheetId="9" r:id="rId7"/>
-    <sheet name="UI 구성" sheetId="6" r:id="rId8"/>
+    <sheet name="패턴 전체 흐름" sheetId="11" r:id="rId4"/>
+    <sheet name="패턴1" sheetId="10" r:id="rId5"/>
+    <sheet name="패턴2" sheetId="7" r:id="rId6"/>
+    <sheet name="패턴3" sheetId="8" r:id="rId7"/>
+    <sheet name="기본공격" sheetId="9" r:id="rId8"/>
+    <sheet name="UI 구성" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -113,10 +114,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2.2 보스 몬스터 데이터 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2.1 페이즈 변경 룰 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -153,51 +150,379 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>다음 페이즈로 넘어가기 위한 체력 양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 체력 감소에 의해서 페이즈가 변경되며 NextPhase 값과 체력양이 동일 할 때 다음 페이즈로 넘어간다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2 보스 몬스터 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 페이즈가 한번 변경 되고 난 이후에는 이전 페이즈로 돌아가지 않는다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 사망 후 재도전 할 경우 페이즈를 초기화하여 출력한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스 몬스터 패턴 구현을위한 데이터 값 정보를 포함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스전에 필요한 UI 정보를 포함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1 패턴1 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2 패턴2 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.3 패턴3 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 페이즈는 출력하는 패턴의 집단으로 페이즈마다 출력되는 패턴이나 순서가 다르다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스전을 위한 스폰 시스템을 추가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스전 연출 UI를 추가 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 패턴1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴 마다 쿨타임을 통해서 출력을 다양하게 할 수 있도록 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 공격을 유저가 회피 할 수있는 형태로 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴을 통해서 공략하는 재미를 추구 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스와 붙어 있는 인형을 통해서 공격하는 형태로 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스의 공격과 인형의 공격을 통해서 다양한 형태로 패턴을 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 착지 피해 범위에 있을 경우 피해를 입음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격이 진행되는 속도는 애니메이터와 협의를 통해서 진행함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 존재하는 곳에 위치 값을 받아 점프하는 형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDamge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴 1번 공격 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 착지 피해 범위는 원형으로 (SkillRange)값을 이용해서 조절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 패턴2 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 패턴3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1 기본 공격 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴1 이후에만 출력하는 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 점프 하는 상황에서만 루트 모션으로 사용해서 작동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니메이션을 전조 - 점프 - 착지 3가지 형태로 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어를 추적해서 공격하는 형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시나 싶어 추가로 남기는 애니메이션 진행 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 캐릭터 손짓 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 무기(토끼인형) 올라탐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 무기(토끼 인형) 점프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내려 찍음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 모션 루트 모션 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 착지 후 Idle 상태로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스의 위치를 맵의 중앙으로 이동 시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이동 후 전조 애니메이션 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 애니메이션을 전조 진행 종료 형태로 분리해서 제작함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.2 보스 스킬 쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>NextPhase</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>다음 페이즈로 넘어가기 위한 체력 양</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 체력 감소에 의해서 페이즈가 변경되며 NextPhase 값과 체력양이 동일 할 때 다음 페이즈로 넘어간다.  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2 보스 몬스터 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 페이즈가 한번 변경 되고 난 이후에는 이전 페이즈로 돌아가지 않는다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어가 사망 후 재도전 할 경우 페이즈를 초기화하여 출력한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">다음 페이즈로 넘어가는 동안의 연출 시간 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 시간동안 보스 액션 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhaseTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 페이즈가 변경 될 경우 (애니 명칭)을 출력한 뒤 변경 시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 페이즈 변경 동안 패턴 진행을 멈추고 재시작 시간을 (PhaseTime) 값으로 조절한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 명칭</t>
+    <t xml:space="preserve"> - 페이즈가 변경 될 경우 (시네마틱 연출\)을 출력한 뒤 변경 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">착지 후 Idle 상태로 변화 되는 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAfterTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 진행 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어가 공격할 시간을 만들기 위한 값 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1 기획의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 다른 패턴과 섞어서 쓸 수 있도록 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 애니메이션 동안 유저 위치를 판단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 범위는 직선형의 직사각형 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 범위와 이펙트의 크기를 동일하게 제작 (콜라이더 크기를 통한 제한)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 범위 이펙트(직사각형) 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 전조 상태에서 공격 상태로 넘어가는 시간은 애니메이션에 지정 된 시간을 통해서 조절함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">충돌 시 감소하는 피해 값 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 동작 종료 이후 착지 위치에 착지 피해 범위 이펙트 표기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 피해는 1회만 입으며 피해 값은 (SkillDamge)에 따라 피해를 입는다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDamge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 피해 값 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 그래픽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 어떤 공격이 오는 지 예상 할 수 있도록 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5 페이즈 변경 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 페이즈가 변경 될 때마다 UI를 통해서 변경을 알린다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스가 스킬을 특정 스킬을 사용할 때마다 UI를 통해서 사용 스킬에 대한 내용을 알린다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 UI는 패턴1,2,3 마다 다르며 각 문서에서 확인 할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">페이즈 번호 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -205,195 +530,116 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">비고 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">5. 흐름도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.1 기본 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.2 패턴 정보 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스 몬스터 패턴 구현을위한 데이터 값 정보를 포함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스전에 필요한 UI 정보를 포함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.3 페이즈 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. UI 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 보스전 추가 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 범위 타입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.1 패턴1 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.2 패턴2 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4. 보스 몬스터 개요 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5. 보스 몬스터 개요 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.3 패턴3 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 페이즈는 출력하는 패턴의 집단으로 페이즈마다 출력되는 패턴이나 순서가 다르다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스전을 위한 스폰 시스템을 추가 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스전 연출 UI를 추가 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 패턴1 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스가 지속적으로 유저를 공격하게 하기 위한 패턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 보스 스킬 쿨타임 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스 스킬 쿨타임 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴 마다 쿨타임을 통해서 출력을 다양하게 할 수 있도록 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 모든 공격을 유저가 회피 할 수있는 형태로 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴을 통해서 공략하는 재미를 추구 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스와 붙어 있는 인형을 통해서 공격하는 형태로 제작 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스의 공격과 인형의 공격을 통해서 다양한 형태로 패턴을 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 시스템 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 애니메이션을 전조 - 점프 - 착지 3가지 형태로 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어가 착지 피해 범위에 있을 경우 피해를 입음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 전조 동작 종료 이후 착지 위치에 착지 피해 범위 이펙트 표기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 공격이 진행되는 속도는 애니메이터와 협의를 통해서 진행함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어가 존재하는 곳에 위치 값을 받아 점프하는 형태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">비고 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 착지 피해는 (SkillDamge) 값을 통해서 조절</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillDamge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴 1번 공격 범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬피해</t>
+    <t xml:space="preserve"> 2.6 스킬 출력 UI  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 사용 전 전조 애니메이션 전에 내용을 출력한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 애니메이션이 종료 되면 내용 출력 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 페이즈 변경과 스킬 사용 떄 출력하는 내용은 (이미지)를 통해서 출력한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스는 중앙에서 무기를 조정하는 형태로 개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 패턴을 중앙에서 시작해 복잡성을 높임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 시작 시 () 내용을 UI로 출력함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 플레이를 하면서 보스가 어떤 스킬을 사용하는지 쉽게 인지하고 회피 할 수 있도록 하기 위한 장치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3 페이즈 변경 흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이후 기본 공격 진행 (해당 부분 참조)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기획자가 엔진 상에서 직접 조절
+콜라이더 / 이펙트 사이즈  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 종료 후 보스 무기(토끼 인형)을 보스가 있는 위치(중앙)으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 공격 범위 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 애니메이션 재생 전 () 내용을 UI로 출력함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 착지 이후 표기 된 이펙트를 삭제함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 원형 형태로 이뤄져 있음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 패턴이 가장 우선 출력 됨 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 보스전 보스 기본 상태 정의 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트의 범위는 플레이어 캐릭터를 중심에서 시작 되는 원형 형태로 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 기획의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 다른 패턴과 섞어 출력하여 계속 플레이어가 위치를 변경 하도록 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어의 위치에 탄막을 날려 지속적으로 움직임을 유도함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 점프를 통해서 보스의 위치를 변경하고 플레이어에게 위협을 주기 위함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스의 위치를 플레이어 근처로 시작한 후 기본 공격으로 이어지게 하기 위한 패턴 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -401,31 +647,147 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>실수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 착지 피해 범위는 원형으로 (SkillRange)값을 이용해서 조절</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 모션은 루트 모션을 이용해서 제작 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 점프와 범위를 통해서 유저에게 피해를 입히는 형태의 방식 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">필요 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4. 패턴2 </t>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 패턴2 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 패턴1 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2 패턴 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막 몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴은 UI 내용을 출력하지 않음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실수형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 캐릭터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 무기 (토끼인형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 무기 (탄막 몬스터) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 탄막 몬스터 위치 생성 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 동작 애니메이션을 재생한 후 공격을 진행 할 탄막 몬스터를 보스의 후방에 출력함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 진행 횟수 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정수형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막 몬스터의 출력 숫자는 ()값으로 조절하며 ()값은 공격 횟수로 사용함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 진행 애니메이션을 출력함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저의 위치에 () 값 마다 공격 범위 이펙트를 생성함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 행위를 () 값동안 반복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 위치는 기획자가 엔진상에서 직접 지정함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">용어 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 캐릭터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 무기 (토끼 인형) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 무기 (탄막 몬스터)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - () 값 이후 유저 위치를 재 판단  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격이 진행 되면 탄막 몬스터를 1개 제거 함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - () 값 이후 패턴을 종료 시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3 공격 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트 생성 위치에 탄막 몬스터가 날아가 공격함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 출력 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 처리 흐름도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,6 +971,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,10 +1022,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,14 +1053,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>41208</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>250758</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
@@ -667,7 +1071,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -675,15 +1079,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="30729"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5457825" y="1276351"/>
-          <a:ext cx="4184583" cy="2686050"/>
+          <a:off x="5581650" y="1276351"/>
+          <a:ext cx="2898708" cy="2686050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -710,8 +1112,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>157292</xdr:rowOff>
     </xdr:to>
@@ -740,6 +1142,59 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247943</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="28211" r="69044" b="51772"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8877300" y="1828800"/>
+          <a:ext cx="3029243" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -747,15 +1202,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>319491</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38029</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7553325"/>
+          <a:ext cx="6334054" cy="1499557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>24019</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>207065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>526142</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>79776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -779,8 +1283,149 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628650" y="3362325"/>
-          <a:ext cx="8682441" cy="1965726"/>
+          <a:off x="711476" y="6021456"/>
+          <a:ext cx="8701905" cy="1943363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>525118</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>20921</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728870" y="8936934"/>
+          <a:ext cx="10058400" cy="1660879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1831976" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750794" y="9524999"/>
+          <a:ext cx="1831976" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>기본공격까지 이어 지는 것</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>654326</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687457" y="13633174"/>
+          <a:ext cx="3354456" cy="3354456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,19 +1437,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4017199" cy="3705225"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>185832</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -823,8 +1473,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="5629275"/>
-          <a:ext cx="4017199" cy="3705225"/>
+          <a:off x="685800" y="13001625"/>
+          <a:ext cx="10058400" cy="604932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -832,7 +1482,197 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2838450</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8277225"/>
+          <a:ext cx="3990975" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="29787" r="70637" b="51773"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="704850" y="1809750"/>
+          <a:ext cx="1228725" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8181975"/>
+          <a:ext cx="3514725" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>597506</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>193055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="14106525"/>
+          <a:ext cx="9836756" cy="1393205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1102,7 +1942,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1952,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -1122,14 +1962,14 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1141,36 +1981,36 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -1185,12 +2025,12 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
@@ -1211,12 +2051,12 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
@@ -1230,38 +2070,28 @@
     <row r="23" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="B26" s="6"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1277,25 +2107,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I28"/>
+  <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1303,47 +2136,162 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N15" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="23"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="23"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>69</v>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1353,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W68"/>
+  <dimension ref="B2:W57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1383,57 +2331,56 @@
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
       <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1442,21 +2389,11 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+        <v>30</v>
+      </c>
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
@@ -1467,205 +2404,628 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" s="2"/>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="6"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="14">
+        <v>1</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="14">
+        <v>2</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="14">
+        <v>3</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="14">
+        <v>1</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="14">
+        <v>2</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="14">
+        <v>3</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="20">
+        <v>4</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="20">
+        <v>5</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="20">
+        <v>6</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E8:G8"/>
+  <mergeCells count="2">
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H40"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="50.75" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="N12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>86</v>
+      <c r="B9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B11" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1675,121 +3035,239 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E25"/>
+  <dimension ref="B2:H76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="72" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="30"/>
+      <c r="C19" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -1797,12 +3275,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -1810,12 +3288,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -1010,6 +1010,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,9 +1029,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1962,14 +1962,14 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1981,36 +1981,36 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2157,15 +2157,15 @@
       <c r="B22" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="13" t="s">
         <v>177</v>
       </c>
@@ -2174,39 +2174,39 @@
       <c r="B23" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="22"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -2344,11 +2344,11 @@
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -2360,9 +2360,9 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="K8" s="2"/>
@@ -2661,21 +2661,21 @@
       <c r="B11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="N11" t="s">
         <v>83</v>
       </c>
@@ -2687,19 +2687,19 @@
       <c r="B12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
       <c r="N12" t="s">
         <v>84</v>
       </c>
@@ -2708,39 +2708,39 @@
       <c r="B13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
       <c r="N14" t="s">
         <v>144</v>
       </c>
@@ -2879,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2916,13 +2916,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
@@ -3094,12 +3094,12 @@
       <c r="B17" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="17" t="s">
         <v>161</v>
       </c>
@@ -3109,25 +3109,25 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="18" t="s">
         <v>170</v>
       </c>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="18" t="s">
         <v>163</v>
       </c>

--- a/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="패턴1" sheetId="10" r:id="rId5"/>
     <sheet name="패턴2" sheetId="7" r:id="rId6"/>
     <sheet name="패턴3" sheetId="8" r:id="rId7"/>
-    <sheet name="기본공격" sheetId="9" r:id="rId8"/>
-    <sheet name="UI 구성" sheetId="6" r:id="rId9"/>
+    <sheet name="패턴4" sheetId="13" r:id="rId8"/>
+    <sheet name="그로기" sheetId="12" r:id="rId9"/>
+    <sheet name="기본공격" sheetId="9" r:id="rId10"/>
+    <sheet name="UI 구성" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="228">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -534,31 +536,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.6 스킬 출력 UI  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 사용 전 전조 애니메이션 전에 내용을 출력한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 전조 애니메이션이 종료 되면 내용 출력 종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 페이즈 변경과 스킬 사용 떄 출력하는 내용은 (이미지)를 통해서 출력한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴 번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -788,6 +766,184 @@
   </si>
   <si>
     <t>공격 처리 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴이 종료 된 이후 유저가 공격 할 시간을 만들어주기 위해서 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 동작을 통해서 어느 정도 공격 할 수있는 시간인지 파악 할 수 있도록 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴이 종료된 이후에 해당 패턴을 출력하는 형태로 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴은 유저가 공격을 하기 위한 패턴으로 공격을 따로 구성하지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴이 종료 된 후 순서에 따라 다음 패턴을 출력한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6 패턴 출력 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 명 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스가 내뱉는 대사와 비슷한 형태로 구성한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7. 그로기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2 그로기 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 기획의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미리 제작된 탄막을 출력하는 형태로 제작한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막의 모양은 프로그래머가 지정한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 서로 다른 형태의 탄막 형태를 사용한다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 패턴4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 다른 패턴에 섞어서 사용 할 수 있도록 제작한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2 패턴 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">용어 정의 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호출 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴을 호출 하기 위한 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막을 부르는 번호는 호출 번호로 표현하며 패턴 사이에 출력 할 수 있도록 제작한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호출 번호 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 다음 과 같은 형태로 지정된 패턴을 불러옴 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막의 형태를 프리팹으로 만들어 불러와 사용하는 형태로 제작함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴 넘버는 1부터 시작하며 3개의 탄막으로 구성되어 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patton4_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patton4_2</t>
+  </si>
+  <si>
+    <t>Patton4_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 2페이즈 이후부터 탄막 패턴을 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴은 애니메이션을 출력하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 2페이즈 이후 부터 전조 동작 이후에 해당 패턴을 순서에 따라 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 순서는 앞선 룰에 따름 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막이 날아가는 속도는 기획자가 제어함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - SkillSpeed 값을 통해서 제어 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실수형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅋ.ㅋ.ㅋ.ㅋ.ㅋ.. 머리 안돌아가서 막 적은 것 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +1093,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,9 +1154,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,6 +1164,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1030,6 +1189,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1676,6 +1844,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="29787" r="70637" b="51773"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="657225" y="2009775"/>
+          <a:ext cx="1228725" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1962,14 +2188,14 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1981,36 +2207,36 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2102,6 +2328,88 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2138,15 +2446,15 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N15" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
@@ -2155,75 +2463,75 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+        <v>170</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="22"/>
+      <c r="B23" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="22"/>
+      <c r="B24" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="22"/>
+      <c r="B25" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
@@ -2301,10 +2609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W57"/>
+  <dimension ref="B2:W50"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2341,14 +2649,14 @@
       <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -2360,9 +2668,9 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="K8" s="2"/>
@@ -2430,7 +2738,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
@@ -2445,15 +2753,15 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
         <v>122</v>
       </c>
@@ -2464,109 +2772,76 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
         <v>1</v>
       </c>
       <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="14">
         <v>2</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="14">
         <v>3</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="14">
-        <v>1</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="14">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="14">
-        <v>3</v>
-      </c>
+      <c r="D49" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="20">
-        <v>4</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="20">
-        <v>5</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="20">
-        <v>6</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>129</v>
-      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2599,7 +2874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -2625,12 +2900,12 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N6" t="s">
         <v>79</v>
@@ -2648,7 +2923,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
@@ -2661,21 +2936,21 @@
       <c r="B11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
       <c r="N11" t="s">
         <v>83</v>
       </c>
@@ -2687,19 +2962,19 @@
       <c r="B12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
       <c r="N12" t="s">
         <v>84</v>
       </c>
@@ -2708,45 +2983,45 @@
       <c r="B13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2759,7 +3034,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -2791,7 +3066,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -2811,7 +3086,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -2844,17 +3119,17 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2877,10 +3152,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E39"/>
+  <dimension ref="B2:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2903,7 +3178,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -2913,12 +3188,12 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -2948,7 +3223,7 @@
         <v>115</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -2961,7 +3236,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -2972,7 +3247,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3015,7 +3290,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
@@ -3027,6 +3302,9 @@
       <c r="B39" s="6" t="s">
         <v>101</v>
       </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3039,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3056,22 +3334,22 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -3079,12 +3357,12 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
@@ -3092,120 +3370,120 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+        <v>153</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
-      <c r="C18" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="18" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H19" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3223,77 +3501,318 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:K44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>72</v>
-      </c>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="32"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="33"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="34"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K38" s="25"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="34"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="34"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="34"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B37"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
-        <v>43</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_보스 몬스터_강일구.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
     <sheet name="보스 개요 " sheetId="2" r:id="rId2"/>
     <sheet name="시스템 룰" sheetId="3" r:id="rId3"/>
-    <sheet name="패턴 전체 흐름" sheetId="11" r:id="rId4"/>
-    <sheet name="패턴1" sheetId="10" r:id="rId5"/>
-    <sheet name="패턴2" sheetId="7" r:id="rId6"/>
-    <sheet name="패턴3" sheetId="8" r:id="rId7"/>
-    <sheet name="패턴4" sheetId="13" r:id="rId8"/>
-    <sheet name="그로기" sheetId="12" r:id="rId9"/>
-    <sheet name="기본공격" sheetId="9" r:id="rId10"/>
-    <sheet name="UI 구성" sheetId="6" r:id="rId11"/>
+    <sheet name="패턴1" sheetId="10" r:id="rId4"/>
+    <sheet name="패턴2" sheetId="7" r:id="rId5"/>
+    <sheet name="패턴3" sheetId="8" r:id="rId6"/>
+    <sheet name="패턴4" sheetId="13" r:id="rId7"/>
+    <sheet name="그로기" sheetId="12" r:id="rId8"/>
+    <sheet name="기본공격" sheetId="9" r:id="rId9"/>
+    <sheet name="UI 구성" sheetId="6" r:id="rId10"/>
+    <sheet name="패턴 전체 흐름" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="249">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.2 보스 몬스터 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 페이즈가 한번 변경 되고 난 이후에는 이전 페이즈로 돌아가지 않는다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,18 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7.1 패턴1 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.2 패턴2 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7.3 패턴3 출력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -216,18 +200,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 보스전을 위한 스폰 시스템을 추가 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스전 연출 UI를 추가 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 패턴1 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 패턴 마다 쿨타임을 통해서 출력을 다양하게 할 수 있도록 구성 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -248,43 +220,223 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">3.1 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - 플레이어가 착지 피해 범위에 있을 경우 피해를 입음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격이 진행되는 속도는 애니메이터와 협의를 통해서 진행함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 존재하는 곳에 위치 값을 받아 점프하는 형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDamge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴 1번 공격 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 착지 피해 범위는 원형으로 (SkillRange)값을 이용해서 조절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 패턴2 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴1 이후에만 출력하는 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 점프 하는 상황에서만 루트 모션으로 사용해서 작동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니메이션을 전조 - 점프 - 착지 3가지 형태로 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어를 추적해서 공격하는 형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시나 싶어 추가로 남기는 애니메이션 진행 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 캐릭터 손짓 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 무기(토끼인형) 올라탐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 무기(토끼 인형) 점프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내려 찍음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 모션 루트 모션 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 착지 후 Idle 상태로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스의 위치를 맵의 중앙으로 이동 시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이동 후 전조 애니메이션 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 애니메이션을 전조 진행 종료 형태로 분리해서 제작함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextPhase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 페이즈가 변경 될 경우 (시네마틱 연출\)을 출력한 뒤 변경 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">착지 후 Idle 상태로 변화 되는 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAfterTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 진행 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어가 공격할 시간을 만들기 위한 값 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1 기획의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 다른 패턴과 섞어서 쓸 수 있도록 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 애니메이션 동안 유저 위치를 판단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 범위는 직선형의 직사각형 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>흐름도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 플레이어가 착지 피해 범위에 있을 경우 피해를 입음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 공격이 진행되는 속도는 애니메이터와 협의를 통해서 진행함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어가 존재하는 곳에 위치 값을 받아 점프하는 형태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
+    <t xml:space="preserve"> - 공격 범위와 이펙트의 크기를 동일하게 제작 (콜라이더 크기를 통한 제한)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 범위 이펙트(직사각형) 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 전조 상태에서 공격 상태로 넘어가는 시간은 애니메이션에 지정 된 시간을 통해서 조절함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">충돌 시 감소하는 피해 값 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 동작 종료 이후 착지 위치에 착지 피해 범위 이펙트 표기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 피해는 1회만 입으며 피해 값은 (SkillDamge)에 따라 피해를 입는다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -292,210 +444,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>패턴 1번 공격 범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 착지 피해 범위는 원형으로 (SkillRange)값을 이용해서 조절</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4. 패턴2 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 패턴3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1 기본 공격 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴1 이후에만 출력하는 공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 점프 하는 상황에서만 루트 모션으로 사용해서 작동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 애니메이션을 전조 - 점프 - 착지 3가지 형태로 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어를 추적해서 공격하는 형태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시나 싶어 추가로 남기는 애니메이션 진행 관련</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조 동작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 캐릭터 손짓 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 무기(토끼인형) 올라탐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 동작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 무기(토끼 인형) 점프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">내려 찍음 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">해당 모션 루트 모션 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 착지 후 Idle 상태로 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스의 위치를 맵의 중앙으로 이동 시킴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이동 후 전조 애니메이션 출력 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 모든 애니메이션을 전조 진행 종료 형태로 분리해서 제작함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.2 보스 스킬 쿨타임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextPhase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 페이즈가 변경 될 경우 (시네마틱 연출\)을 출력한 뒤 변경 시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">착지 후 Idle 상태로 변화 되는 시간 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillAfterTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 진행 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어가 공격할 시간을 만들기 위한 값 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.1 기획의도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 다른 패턴과 섞어서 쓸 수 있도록 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 범위 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 전조 애니메이션 동안 유저 위치를 판단</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 공격 범위는 직선형의 직사각형 형태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 공격 범위와 이펙트의 크기를 동일하게 제작 (콜라이더 크기를 통한 제한)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 공격 범위 이펙트(직사각형) 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 공격 전조 상태에서 공격 상태로 넘어가는 시간은 애니메이션에 지정 된 시간을 통해서 조절함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 범위 값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">충돌 시 감소하는 피해 값 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 전조 동작 종료 이후 착지 위치에 착지 피해 범위 이펙트 표기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 피해는 1회만 입으며 피해 값은 (SkillDamge)에 따라 피해를 입는다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillDamge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">스킬 피해 값 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -505,10 +453,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 플레이어가 어떤 공격이 오는 지 예상 할 수 있도록 제작 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.5 페이즈 변경 UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -573,14 +517,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">3.3 공격 범위 형태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 전조 애니메이션 재생 전 () 내용을 UI로 출력함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 착지 이후 표기 된 이펙트를 삭제함 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -593,71 +529,381 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - 이펙트의 범위는 플레이어 캐릭터를 중심에서 시작 되는 원형 형태로 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 기획의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 다른 패턴과 섞어 출력하여 계속 플레이어가 위치를 변경 하도록 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어의 위치에 탄막을 날려 지속적으로 움직임을 유도함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 점프를 통해서 보스의 위치를 변경하고 플레이어에게 위협을 주기 위함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스의 위치를 플레이어 근처로 시작한 후 기본 공격으로 이어지게 하기 위한 패턴 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 패턴2 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 패턴1 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2 패턴 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막 몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴은 UI 내용을 출력하지 않음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실수형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 캐릭터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 무기 (토끼인형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 무기 (탄막 몬스터) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 탄막 몬스터 위치 생성 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 동작 애니메이션을 재생한 후 공격을 진행 할 탄막 몬스터를 보스의 후방에 출력함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 진행 횟수 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정수형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막 몬스터의 출력 숫자는 ()값으로 조절하며 ()값은 공격 횟수로 사용함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 진행 애니메이션을 출력함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저의 위치에 () 값 마다 공격 범위 이펙트를 생성함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 행위를 () 값동안 반복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 위치는 기획자가 엔진상에서 직접 지정함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">용어 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 캐릭터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 무기 (토끼 인형) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 무기 (탄막 몬스터)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - () 값 이후 유저 위치를 재 판단  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격이 진행 되면 탄막 몬스터를 1개 제거 함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - () 값 이후 패턴을 종료 시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3 공격 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트 생성 위치에 탄막 몬스터가 날아가 공격함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 출력 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 처리 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴이 종료 된 이후 유저가 공격 할 시간을 만들어주기 위해서 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 동작을 통해서 어느 정도 공격 할 수있는 시간인지 파악 할 수 있도록 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴이 종료된 이후에 해당 패턴을 출력하는 형태로 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴은 유저가 공격을 하기 위한 패턴으로 공격을 따로 구성하지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴이 종료 된 후 순서에 따라 다음 패턴을 출력한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 명 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스가 내뱉는 대사와 비슷한 형태로 구성한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7. 그로기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2 그로기 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 기획의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미리 제작된 탄막을 출력하는 형태로 제작한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막의 모양은 프로그래머가 지정한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 서로 다른 형태의 탄막 형태를 사용한다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 패턴4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 다른 패턴에 섞어서 사용 할 수 있도록 제작한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2 패턴 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">용어 정의 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호출 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴을 호출 하기 위한 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막을 부르는 번호는 호출 번호로 표현하며 패턴 사이에 출력 할 수 있도록 제작한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호출 번호 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 다음 과 같은 형태로 지정된 패턴을 불러옴 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막의 형태를 프리팹으로 만들어 불러와 사용하는 형태로 제작함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴 넘버는 1부터 시작하며 3개의 탄막으로 구성되어 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patton4_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patton4_2</t>
+  </si>
+  <si>
+    <t>Patton4_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 2페이즈 이후부터 탄막 패턴을 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴은 애니메이션을 출력하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 2페이즈 이후 부터 전조 동작 이후에 해당 패턴을 순서에 따라 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 순서는 앞선 룰에 따름 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막이 날아가는 속도는 기획자가 제어함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - SkillSpeed 값을 통해서 제어 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실수형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅋ.ㅋ.ㅋ.ㅋ.ㅋ.. 머리 안돌아가서 막 적은 것 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.08.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴4 / 그로기 내용 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.2 보스전 보스 기본 상태 정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3 페이즈 변경 흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">2.2 보스전 보스 기본 상태 정의 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 이펙트의 범위는 플레이어 캐릭터를 중심에서 시작 되는 원형 형태로 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1 기획의도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 다른 패턴과 섞어 출력하여 계속 플레이어가 위치를 변경 하도록 제작 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어의 위치에 탄막을 날려 지속적으로 움직임을 유도함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 점프를 통해서 보스의 위치를 변경하고 플레이어에게 위협을 주기 위함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스의 위치를 플레이어 근처로 시작한 후 기본 공격으로 이어지게 하기 위한 패턴 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 패턴2 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 패턴1 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2 패턴 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄막 몬스터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 패턴은 UI 내용을 출력하지 않음 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 명칭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">내용 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 형 </t>
+    <t xml:space="preserve">상태 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -665,127 +911,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">실수형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 캐릭터 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 무기 (토끼인형)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 무기 (탄막 몬스터) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">다음 탄막 몬스터 위치 생성 시간 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 전조 동작 애니메이션을 재생한 후 공격을 진행 할 탄막 몬스터를 보스의 후방에 출력함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 진행 횟수 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정수형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탄막 몬스터의 출력 숫자는 ()값으로 조절하며 ()값은 공격 횟수로 사용함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 공격 진행 애니메이션을 출력함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 유저의 위치에 () 값 마다 공격 범위 이펙트를 생성함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 행위를 () 값동안 반복</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 출력 위치는 기획자가 엔진상에서 직접 지정함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">용어 명칭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 캐릭터 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 무기 (토끼 인형) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 무기 (탄막 몬스터)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - () 값 이후 유저 위치를 재 판단  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 공격이 진행 되면 탄막 몬스터를 1개 제거 함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - () 값 이후 패턴을 종료 시킴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3 공격 범위 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이펙트 생성 위치에 탄막 몬스터가 날아가 공격함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트 출력 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 처리 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴이 종료 된 이후 유저가 공격 할 시간을 만들어주기 위해서 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 동작을 통해서 어느 정도 공격 할 수있는 시간인지 파악 할 수 있도록 한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴이 종료된 이후에 해당 패턴을 출력하는 형태로 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 패턴은 유저가 공격을 하기 위한 패턴으로 공격을 따로 구성하지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 패턴이 종료 된 후 순서에 따라 다음 패턴을 출력한다. </t>
+    <t xml:space="preserve"> 2.4 페이즈 변경 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4 페이즈 변경 UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -793,157 +923,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">데이터 명 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스가 내뱉는 대사와 비슷한 형태로 구성한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7. 그로기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2 그로기 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1 기획의도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미리 제작된 탄막을 출력하는 형태로 제작한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탄막의 모양은 프로그래머가 지정한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 서로 다른 형태의 탄막 형태를 사용한다 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 패턴4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 다른 패턴에 섞어서 사용 할 수 있도록 제작한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2 패턴 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">용어 정의 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">명칭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호출 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴을 호출 하기 위한 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탄막을 부르는 번호는 호출 번호로 표현하며 패턴 사이에 출력 할 수 있도록 제작한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호출 번호 예시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 다음 과 같은 형태로 지정된 패턴을 불러옴 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탄막의 형태를 프리팹으로 만들어 불러와 사용하는 형태로 제작함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴 넘버는 1부터 시작하며 3개의 탄막으로 구성되어 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patton4_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patton4_2</t>
-  </si>
-  <si>
-    <t>Patton4_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 2페이즈 이후부터 탄막 패턴을 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 패턴은 애니메이션을 출력하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 2페이즈 이후 부터 전조 동작 이후에 해당 패턴을 순서에 따라 출력 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 출력 순서는 앞선 룰에 따름 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">탄막 형태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탄막이 날아가는 속도는 기획자가 제어함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 명칭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - SkillSpeed 값을 통해서 제어 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">실수형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ㅋ.ㅋ.ㅋ.ㅋ.ㅋ.. 머리 안돌아가서 막 적은 것 </t>
+    <t xml:space="preserve"> 2.6 패턴 UI 출력 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 패턴1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 패턴1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2 패턴1 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4 공격 범위 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4 공격 범위 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2 패턴2 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 패턴2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 패턴3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 패턴3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.2 패턴 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.3 공격 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.4 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1 기본 공격 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1 패턴1 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2 패턴2 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그로기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">페이즈 변환 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 애니메이션 재생 전 (스크립트) 내용을 UI로 출력함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1093,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,6 +1259,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,14 +1292,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1372,13 +1468,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38029</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>32707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2165,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J32"/>
+  <dimension ref="A2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2188,14 +2284,14 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2207,36 +2303,42 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
+      <c r="B6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2251,12 +2353,12 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
@@ -2267,57 +2369,270 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+    <row r="18" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
+    <row r="23" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+    </row>
+    <row r="30" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="38"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="38"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="38"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="38"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+    </row>
+    <row r="37" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+    </row>
+    <row r="44" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="38"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="38"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="38"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+    </row>
+    <row r="50" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="38"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="38"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+    </row>
+    <row r="55" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="38"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="38"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2333,37 +2648,35 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:B37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>72</v>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2375,41 +2688,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B37"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2417,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:I24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2446,15 +2734,15 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N15" s="6" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
@@ -2463,58 +2751,58 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="13" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+        <v>155</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+        <v>156</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -2545,17 +2833,17 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
@@ -2565,32 +2853,32 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2609,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W50"/>
+  <dimension ref="B2:W53"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2650,17 +2938,17 @@
         <v>25</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>29</v>
@@ -2668,9 +2956,9 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="K8" s="2"/>
@@ -2687,7 +2975,7 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2706,142 +2994,167 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T12" s="2"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="14">
         <v>1</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="14">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="14">
         <v>2</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="14">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="14">
         <v>3</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="24" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E51" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="25" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="25"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="E52" s="25"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2857,25 +3170,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2887,137 +3185,137 @@
   <sheetData>
     <row r="2" spans="2:17" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+        <v>58</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+        <v>56</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+        <v>54</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
@@ -3034,7 +3332,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -3048,65 +3346,65 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
@@ -3114,22 +3412,22 @@
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3150,12 +3448,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3168,75 +3466,75 @@
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="16" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -3247,7 +3545,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3255,52 +3553,52 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
@@ -3313,12 +3611,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B61" activeCellId="2" sqref="B15 B37 B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3329,27 +3627,27 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -3357,12 +3655,12 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
@@ -3370,120 +3668,120 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="17" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
-      <c r="C18" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="C18" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="18" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="23"/>
-      <c r="C19" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="C19" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="18" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H19" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3499,12 +3797,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B14" activeCellId="2" sqref="B2 B4 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3514,211 +3812,211 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="24" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="32"/>
+        <v>188</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="25" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="33" t="s">
-        <v>210</v>
+      <c r="B30" s="30" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
+      <c r="B31" s="30"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="34" t="s">
-        <v>216</v>
+      <c r="B32" s="31" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="34" t="s">
-        <v>217</v>
+      <c r="B33" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
-        <v>218</v>
+      <c r="B34" s="31" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="34" t="s">
-        <v>219</v>
+      <c r="B35" s="31" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="34"/>
+      <c r="B36" s="31"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
+        <v>207</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="25" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="K38" s="25"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="34"/>
+      <c r="B39" s="31"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="34"/>
+      <c r="B40" s="31"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="34" t="s">
-        <v>221</v>
+      <c r="B41" s="31" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="34" t="s">
-        <v>224</v>
+      <c r="B42" s="31" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="34"/>
+      <c r="B43" s="31"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="34"/>
+      <c r="B44" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3733,12 +4031,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" activeCellId="2" sqref="B2 B4 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3751,38 +4049,38 @@
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>27</v>
@@ -3802,17 +4100,59 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>187</v>
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
